--- a/biology/Zoologie/Grive_de_Tristan_da_Cunha/Grive_de_Tristan_da_Cunha.xlsx
+++ b/biology/Zoologie/Grive_de_Tristan_da_Cunha/Grive_de_Tristan_da_Cunha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turdus eremita
 La Grive de Tristan da Cunha (Turdus eremita, anciennement Nesocichla eremita) est une espèce de passereaux de la famille des Turdidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'archipel Tristan da Cunha.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016) :
 sous-espèce Turdus eremita eremita (Gould, 1855) de l'île Tristan da Cunha
 sous-espèce Turdus eremita gordoni (Stenhouse, 1924) de l'île Inaccessible
 sous-espèce Turdus eremita procax (Elliott, 1954) de l'île Nightingale</t>
@@ -576,7 +592,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diverses études phylogéniques ayant montré que cette espèce fait partie du clade des Turdus, le Congrès ornithologique international (classification version 4.2, 2014) la transfère dans ce dernier genre. Elle était auparavant placée dans le genre monotypique Nesocichla.
 </t>
